--- a/Vincent_Leung_Portfolio_2016/Test_Cases.xlsx
+++ b/Vincent_Leung_Portfolio_2016/Test_Cases.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="260">
   <si>
     <t>New user registration and login</t>
   </si>
@@ -385,6 +385,532 @@
   </si>
   <si>
     <t>No message to retry. Must close out window</t>
+  </si>
+  <si>
+    <t>D-0006</t>
+  </si>
+  <si>
+    <t>Verify Invite Account functionality</t>
+  </si>
+  <si>
+    <t>A separate email account different from login account</t>
+  </si>
+  <si>
+    <t>1. At the home page, click Get set up by a pro
+2. In the empty field, enter the email address to send a test invite
+3. Click Invite accountant</t>
+  </si>
+  <si>
+    <t>Email address receives an invite to the QuickBooks platform</t>
+  </si>
+  <si>
+    <t>No email received at test address</t>
+  </si>
+  <si>
+    <t>DR-D-0002</t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>E-0001</t>
+  </si>
+  <si>
+    <t>Verify adding first customer to account</t>
+  </si>
+  <si>
+    <t>1. Click Customers from the left menu
+2. Fill out customer details
+3. Click Add customer</t>
+  </si>
+  <si>
+    <t>Customer is entered into account database</t>
+  </si>
+  <si>
+    <t>Customer contact information</t>
+  </si>
+  <si>
+    <t>D-0007</t>
+  </si>
+  <si>
+    <t>Verify creating an invoice</t>
+  </si>
+  <si>
+    <t>1. At the home page, click Create your first invoice
+2. Choose a customer from the top left drop down menu
+3. Enter the customer's email address
+4. Fill out item description and price
+5. Enter a message and memo
+6. Upload an attachment
+7. Click Save and Send and Save and Close</t>
+  </si>
+  <si>
+    <t>Invoice is sent to the customer</t>
+  </si>
+  <si>
+    <t>Invoice sent confirmation popup message appears</t>
+  </si>
+  <si>
+    <t>User is taken to a page listing the customer that was added</t>
+  </si>
+  <si>
+    <t>D-0008</t>
+  </si>
+  <si>
+    <t>Verify Income and Profit/Loss charts are displaying correct data</t>
+  </si>
+  <si>
+    <t>Must have run test D-0007 at least once</t>
+  </si>
+  <si>
+    <t>1. At the home page, observe the Income informational graphic
+2. At the home page, observe the Profit and Loss graph</t>
+  </si>
+  <si>
+    <t>The charts would reflect the correct values as indicated by the previously entered invoices</t>
+  </si>
+  <si>
+    <t>Charts match the open invoices and profit value</t>
+  </si>
+  <si>
+    <t>D-0009</t>
+  </si>
+  <si>
+    <t>Verify Private mode</t>
+  </si>
+  <si>
+    <t>1. At the home page, next to the company name, toggle the Private mode to ON</t>
+  </si>
+  <si>
+    <t>Private mode would enable hiding of monetary amounts from metrics on the page</t>
+  </si>
+  <si>
+    <t>The monetary values are hidden for Income, Expenses, and Profit and Loss</t>
+  </si>
+  <si>
+    <t>Verify export customer list functionality</t>
+  </si>
+  <si>
+    <t>1. Click Customers from the left menu
+2. Click New customer
+3. Enter customer data and click Save
+4. Repeat steps 2 and 3 to enter multiple customers
+5. Click the export button (between the print and settings button)</t>
+  </si>
+  <si>
+    <t>Customer list is generated in spreadsheet format</t>
+  </si>
+  <si>
+    <t>Excel spreadsheet appears with customer information exported</t>
+  </si>
+  <si>
+    <t>Verify sort functionality of customer list</t>
+  </si>
+  <si>
+    <t>1. Click Customers from the left menu
+2. Click the Customer column
+3. Click the Balance column</t>
+  </si>
+  <si>
+    <t>The customers list is sorted alphabetically by name and is then sorted by the balance amount</t>
+  </si>
+  <si>
+    <t>Sorting works as designed. The list is sorted alphabetically and then by balance in ascending/descending order</t>
+  </si>
+  <si>
+    <t>Verify search functionality of customer list</t>
+  </si>
+  <si>
+    <t>1. Click Customers from the left menu
+2. In the search field at the top, enter the name of a customer</t>
+  </si>
+  <si>
+    <t>Search results would appear including the name that was searched</t>
+  </si>
+  <si>
+    <t>Search results include customer(s) with the name that was searched</t>
+  </si>
+  <si>
+    <t>DR-E-0001</t>
+  </si>
+  <si>
+    <t>Verify add column functionality of customer list</t>
+  </si>
+  <si>
+    <t>1. Click Customers from the left menu
+2. Click the Tools icon at the right side
+3. Enable the Address, Phone, and Email check boxes</t>
+  </si>
+  <si>
+    <t>Additional columns would be added to the customer list</t>
+  </si>
+  <si>
+    <t>Corresponding columns are added for Address, Phone, and Email</t>
+  </si>
+  <si>
+    <t>DR-E-0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify functionality of the hide/show caret </t>
+  </si>
+  <si>
+    <t>E-0002</t>
+  </si>
+  <si>
+    <t>E-0003</t>
+  </si>
+  <si>
+    <t>E-0004</t>
+  </si>
+  <si>
+    <t>E-0005</t>
+  </si>
+  <si>
+    <t>E-0006</t>
+  </si>
+  <si>
+    <t>1. Click Customers from the left menu
+2. Click the hide/show caret on the right side below the multicolor billing graphic</t>
+  </si>
+  <si>
+    <t>The graphic will hide or show depending on orientation of the caret</t>
+  </si>
+  <si>
+    <t>The billing graphic hides and shows as intended</t>
+  </si>
+  <si>
+    <t>User account management</t>
+  </si>
+  <si>
+    <t>F-0001</t>
+  </si>
+  <si>
+    <t>Click on the settings icon on the top menu bar</t>
+  </si>
+  <si>
+    <t>Verify ability to edit company name</t>
+  </si>
+  <si>
+    <t>Verify ability to edit contact information</t>
+  </si>
+  <si>
+    <t>F-0002</t>
+  </si>
+  <si>
+    <t>F-0003</t>
+  </si>
+  <si>
+    <t>Verify ability to edit company logo</t>
+  </si>
+  <si>
+    <t>1. Under Settings, click Company Settings
+2. Ciick Company from left menu
+3. Click the pencil edit icon in the Company name section
+4. Click the + icon and upload an image
+5. Click Save</t>
+  </si>
+  <si>
+    <t>Company logo can be changed and updated</t>
+  </si>
+  <si>
+    <t>Company logo is saved to the profile page</t>
+  </si>
+  <si>
+    <t>1. Under Settings, click Company Settings
+2. Ciick Company from left menu
+3. Click the pencil edit icon in the Company name section
+4. In the Company name field, enter a new name
+5. Click Save</t>
+  </si>
+  <si>
+    <t>Company name can be changed and updated</t>
+  </si>
+  <si>
+    <t>Company name is saved to the profile page</t>
+  </si>
+  <si>
+    <t>1. Under Settings, click Company Settings
+2. Ciick Company from left menu
+3. Click the pencil edit icon in the Contact info section
+4. Enter new contact information or edit existing ones
+5. Click Save</t>
+  </si>
+  <si>
+    <t>Company contact information is saved</t>
+  </si>
+  <si>
+    <t>Contact info is saved with changes</t>
+  </si>
+  <si>
+    <t>F-0004</t>
+  </si>
+  <si>
+    <t>Verify account subscription page</t>
+  </si>
+  <si>
+    <t>1. Under Your Company, select Your Account
+2. Observe</t>
+  </si>
+  <si>
+    <t>A page would appear showing current account status and available subscription plans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subscription plans are shown with prices and ability to sign up and account is shown with Free Trial </t>
+  </si>
+  <si>
+    <t>F-0005</t>
+  </si>
+  <si>
+    <t>1. Under Your Company, select Your Account
+2. In the Manage Users section, select the master account
+3. Click Delete and confirm</t>
+  </si>
+  <si>
+    <t>User would be unable to delete master admin account</t>
+  </si>
+  <si>
+    <t>No changes are made, but the Your Account screen becomes blank and unable to load unless the program is restarted</t>
+  </si>
+  <si>
+    <t>DR-F-0001</t>
+  </si>
+  <si>
+    <t>Verify Manage Users function (deleting master account)</t>
+  </si>
+  <si>
+    <t>Verify Manage Users function (editing account)</t>
+  </si>
+  <si>
+    <t>F-0006</t>
+  </si>
+  <si>
+    <t>Changes will be saved</t>
+  </si>
+  <si>
+    <t>Changes are saved, but the Manage Users page is replaced by a blank screen. User must click on a section in the left menu and manually go back into the page to confirm changes</t>
+  </si>
+  <si>
+    <t>DR-F-0002</t>
+  </si>
+  <si>
+    <t>Verify Manage Users function (account activity page)</t>
+  </si>
+  <si>
+    <t>1. Under Your Company, select Your Account
+2. In the Manage Users section, select an account
+3. Click Edit 
+4. Edit the first and/or last name and click Save</t>
+  </si>
+  <si>
+    <t>1. Under Your Company, select Your Account
+2. In the Manage Users section, select an account
+3. Click Activity</t>
+  </si>
+  <si>
+    <t>Audit Log will load showing all activity on the account</t>
+  </si>
+  <si>
+    <t>Audit Log loads correctly</t>
+  </si>
+  <si>
+    <t>Verify Manage Users function (creating new account)</t>
+  </si>
+  <si>
+    <t>F-0007</t>
+  </si>
+  <si>
+    <t>F-0008</t>
+  </si>
+  <si>
+    <t>1. Under Your Company, select Your Account
+2. In the Manage Users section, click New
+3. Choose Regular user
+4. Click through default settings
+5. Enter email address
+6. Click Next and Finish</t>
+  </si>
+  <si>
+    <t>Invite will be sent out to email address</t>
+  </si>
+  <si>
+    <t>Invite is sent and user is added to user list</t>
+  </si>
+  <si>
+    <t>Verify Manage Users function (transfer master admin)</t>
+  </si>
+  <si>
+    <t>F-0009</t>
+  </si>
+  <si>
+    <t>1. Under Your Company, select Your Account
+2. In the Manage Users section, click Transfer Master Administrator
+3. Click Make someone a Company Administrator</t>
+  </si>
+  <si>
+    <t>Able to make another user a Company Administrator</t>
+  </si>
+  <si>
+    <t>Action does not complete. A blank loading screen appears behind window and never loads.</t>
+  </si>
+  <si>
+    <t>Additional user was never confirmed, but the Transfer option still appeared. Perhaps the function should not be enabled until at least one user has been added to the account and confirmed activation?</t>
+  </si>
+  <si>
+    <t>DR-F-0003</t>
+  </si>
+  <si>
+    <t>1. Click the settings icon in the top menu bar
+2. Under Your Company, select Refer a Friend
+3. Enter email address(es) of friends to invite
+4. Click Send Email</t>
+  </si>
+  <si>
+    <t>F-0010</t>
+  </si>
+  <si>
+    <t>Verify Refer a Friend function</t>
+  </si>
+  <si>
+    <t>Confirmation screen appears</t>
+  </si>
+  <si>
+    <t>Confirmation appears stating email is sent and option to close or refer more friends</t>
+  </si>
+  <si>
+    <t>Vendors</t>
+  </si>
+  <si>
+    <t>G-0001</t>
+  </si>
+  <si>
+    <t>Verify adding first vendor to account</t>
+  </si>
+  <si>
+    <t>1. Click Vendors from the left menu
+2. Click New vendor
+3. Fill out vendor details
+4. Click Add customer</t>
+  </si>
+  <si>
+    <t>Vendor is entered into account database</t>
+  </si>
+  <si>
+    <t>User is taken to a page listing the vendor that was added</t>
+  </si>
+  <si>
+    <t>Vendor contact information</t>
+  </si>
+  <si>
+    <t>G-0002</t>
+  </si>
+  <si>
+    <t>G-0003</t>
+  </si>
+  <si>
+    <t>G-0004</t>
+  </si>
+  <si>
+    <t>G-0005</t>
+  </si>
+  <si>
+    <t>G-0006</t>
+  </si>
+  <si>
+    <t>Verify export vendor list functionality</t>
+  </si>
+  <si>
+    <t>1. Click Vendors from the left menu
+2. Click New vendor
+3. Enter customer data and click Save
+4. Repeat steps 2 and 3 to enter multiple customers
+5. Click the export button (between the print and settings button)</t>
+  </si>
+  <si>
+    <t>Vendor list is generated in spreadsheet format</t>
+  </si>
+  <si>
+    <t>Excel spreadsheet appears with vendor information exported</t>
+  </si>
+  <si>
+    <t>Verify sort functionality of vendor list</t>
+  </si>
+  <si>
+    <t>Verify search functionality of vendor list</t>
+  </si>
+  <si>
+    <t>Verify add column functionality of vendor list</t>
+  </si>
+  <si>
+    <t>1. Click Vendors from the left menu
+2. Click the Tools icon at the right side
+3. Enable the Address, Phone, and Email check boxes</t>
+  </si>
+  <si>
+    <t>1. Click Vendors from the left menu
+2. Click the Vendor column
+3. Click the Balance column</t>
+  </si>
+  <si>
+    <t>1. Click Vendors from the left menu
+2. In the search field at the top, enter the name of a vendor</t>
+  </si>
+  <si>
+    <t>1. Click Vendors from the left menu
+2. Click the hide/show caret on the right side below the multicolor billing graphic</t>
+  </si>
+  <si>
+    <t>Additional columns would be added to the vendor list</t>
+  </si>
+  <si>
+    <t>The vendor list is sorted alphabetically by name and is then sorted by the balance amount</t>
+  </si>
+  <si>
+    <t>G-0007</t>
+  </si>
+  <si>
+    <t>Verify vendor status (deactivate)</t>
+  </si>
+  <si>
+    <t>Verify vendor status (activate)</t>
+  </si>
+  <si>
+    <t>Vendor must be active</t>
+  </si>
+  <si>
+    <t>Vendor must be inactive</t>
+  </si>
+  <si>
+    <t>G-0008</t>
+  </si>
+  <si>
+    <t>The vendor disappears from the list and is listed as (deleted)</t>
+  </si>
+  <si>
+    <t>The (deleted) status of the vendor disappears</t>
+  </si>
+  <si>
+    <t>1. Click Vendors from the left menu
+2. Next to the vendor, select the down caret and select Make inactive
+3. Click Yes</t>
+  </si>
+  <si>
+    <t>1. Click Vendors from the left menu
+2. Click the tools icon at the top right
+3. Check the box Include inactive
+4 Next to the vendor, select the down caret and select Make inactive
+5. Click Yes</t>
+  </si>
+  <si>
+    <t>The vendor is deactivated</t>
+  </si>
+  <si>
+    <t>The vendor is activated and shows in the list again</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>H-0001</t>
   </si>
 </sst>
 </file>
@@ -467,7 +993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -503,6 +1029,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,16 +1313,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" style="15" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="24.83203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="16" style="3" customWidth="1"/>
@@ -839,8 +1371,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="11" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
@@ -943,8 +1475,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:11" s="11" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="10"/>
@@ -1055,8 +1587,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:11" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B13" s="10"/>
@@ -1101,13 +1633,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:11" s="12" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B16" s="13"/>
     </row>
-    <row r="17" spans="2:11" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>80</v>
       </c>
@@ -1127,7 +1659,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>85</v>
       </c>
@@ -1150,7 +1682,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="92" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>92</v>
       </c>
@@ -1173,7 +1705,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="138" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="138" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>96</v>
       </c>
@@ -1193,7 +1725,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>101</v>
       </c>
@@ -1217,6 +1749,665 @@
       </c>
       <c r="K21" s="3" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="168" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="168" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="168" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" s="11" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:11" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="11" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:11" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="138" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="127" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="143" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="172" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="124" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="11" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="B44" s="10"/>
+    </row>
+    <row r="45" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="115" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="11" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B53" s="10"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="4" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/Vincent_Leung_Portfolio_2016/Test_Cases.xlsx
+++ b/Vincent_Leung_Portfolio_2016/Test_Cases.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="423">
   <si>
     <t>New user registration and login</t>
   </si>
@@ -911,6 +911,600 @@
   </si>
   <si>
     <t>H-0001</t>
+  </si>
+  <si>
+    <t>Verify Add employee function</t>
+  </si>
+  <si>
+    <t>1. Click Employees in the left menu
+2. Click Add employee at the top right
+3. Enter employee information
+4. Click Save</t>
+  </si>
+  <si>
+    <t>The employee is added to the account</t>
+  </si>
+  <si>
+    <t>The added employee shows up in the employee list</t>
+  </si>
+  <si>
+    <t>Verify Edit employee information</t>
+  </si>
+  <si>
+    <t>H-0003</t>
+  </si>
+  <si>
+    <t>H-0002</t>
+  </si>
+  <si>
+    <t>Must have at least 1 employee added</t>
+  </si>
+  <si>
+    <t>Employee information is edited</t>
+  </si>
+  <si>
+    <t>1. Click Employees in the left menu
+2. Click Edit next to the employee
+3. Change information in the fields
+4. Click Save
+5. Double-click on the employee name to view information</t>
+  </si>
+  <si>
+    <t>Verify Delete employee from list</t>
+  </si>
+  <si>
+    <t>1. Click Employees in the left menu
+2. Click the dropdown next to employee name
+3. Select Delete and confirm</t>
+  </si>
+  <si>
+    <t>Selected employee is deleted from the list</t>
+  </si>
+  <si>
+    <t>Sales Tax</t>
+  </si>
+  <si>
+    <t>I-0001</t>
+  </si>
+  <si>
+    <t>Verify tax rate set up</t>
+  </si>
+  <si>
+    <t>1. Click Sales Tax from the left menu
+2. Choose the appropriate options and enter the tax and agency name, and tax rate
+3. Click Save</t>
+  </si>
+  <si>
+    <t>User is brought to the Sales Tax Center page</t>
+  </si>
+  <si>
+    <t>I-0002</t>
+  </si>
+  <si>
+    <t>Verify Record Tax Payment</t>
+  </si>
+  <si>
+    <t>1. Click Sales Tax from the left menu
+2. Click Record Tax Payment</t>
+  </si>
+  <si>
+    <t>Record Tax Payment does not function. Clicking does not bring up any menus or screens</t>
+  </si>
+  <si>
+    <t>DR-I-0001</t>
+  </si>
+  <si>
+    <t>Verify view sales tax report</t>
+  </si>
+  <si>
+    <t>I-0003</t>
+  </si>
+  <si>
+    <t>1. Click Sales Tax from the left menu
+2. Click View Report</t>
+  </si>
+  <si>
+    <t>User is brought to screen to enter tax payment information</t>
+  </si>
+  <si>
+    <t>Tax report information is generated</t>
+  </si>
+  <si>
+    <t>User lands on report page</t>
+  </si>
+  <si>
+    <t>Report is empty because of no data</t>
+  </si>
+  <si>
+    <t>Must have run I-0003</t>
+  </si>
+  <si>
+    <t>Verify Print report</t>
+  </si>
+  <si>
+    <t>1. Click Print</t>
+  </si>
+  <si>
+    <t>Print menu appears for user</t>
+  </si>
+  <si>
+    <t>Verify Email report</t>
+  </si>
+  <si>
+    <t>Able to send report by email</t>
+  </si>
+  <si>
+    <t>1. Click Email 
+2. Fill in the To: field and click Send</t>
+  </si>
+  <si>
+    <t>DR-I-0002</t>
+  </si>
+  <si>
+    <t>Report sent, but no confirmation screen</t>
+  </si>
+  <si>
+    <t>Report is sent to email address</t>
+  </si>
+  <si>
+    <t>I-0004</t>
+  </si>
+  <si>
+    <t>I-0005</t>
+  </si>
+  <si>
+    <t>I-0006</t>
+  </si>
+  <si>
+    <t>Verify Customize options</t>
+  </si>
+  <si>
+    <t>1. Click Customize
+2. Observe the customization menu</t>
+  </si>
+  <si>
+    <t>Four sub-menus should appear: General, Rows/Columns, Numbers, Header/Footer</t>
+  </si>
+  <si>
+    <t>All four menus are present and are accessible</t>
+  </si>
+  <si>
+    <t>J-0001</t>
+  </si>
+  <si>
+    <t>Verify adding bank account</t>
+  </si>
+  <si>
+    <t>Verify removing bank account</t>
+  </si>
+  <si>
+    <t>J-0002</t>
+  </si>
+  <si>
+    <t>1. Click Transactions, then Banking
+2. Click Add account
+3. Choose the bank or card
+4. Enter your account credentials
+5. Select the account and click Connect</t>
+  </si>
+  <si>
+    <t>Must have run J-0001</t>
+  </si>
+  <si>
+    <t>Transactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account is added and transactions show up </t>
+  </si>
+  <si>
+    <t>1. Click Transactions, then Banking
+2. Click Edit Info
+3. Click Remove account</t>
+  </si>
+  <si>
+    <t>Account is removed</t>
+  </si>
+  <si>
+    <t>DR-J-0001</t>
+  </si>
+  <si>
+    <t>J-0003</t>
+  </si>
+  <si>
+    <t>Verify Charts of Accounts function</t>
+  </si>
+  <si>
+    <t>1. Click Transactions, then Charts of Accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of different accounts in the company are shown </t>
+  </si>
+  <si>
+    <t>J-0004</t>
+  </si>
+  <si>
+    <t>Verify print checks function</t>
+  </si>
+  <si>
+    <t>1. Click Transactions, then Expenses
+2. Click Print Checks at the top right
+3. Click the printer icon
+4. Choose printer and click Print</t>
+  </si>
+  <si>
+    <t>Checks list is printed</t>
+  </si>
+  <si>
+    <t>J-0005</t>
+  </si>
+  <si>
+    <t>1. Click Transactions, then Expenses
+2. Click Pay Bills
+3. Enter payment amount in the Payment field
+4. Click Save</t>
+  </si>
+  <si>
+    <t>Verify pay bills function</t>
+  </si>
+  <si>
+    <t>Must have an outstanding bill</t>
+  </si>
+  <si>
+    <t>Bill is marked as paid and check number increments by 1. Payment is reflected in Expenses list</t>
+  </si>
+  <si>
+    <t>1. Click Transactions, then Expenses
+2. Click New Transactions
+3. Click Bill
+4. Fill in the required fields and click Save</t>
+  </si>
+  <si>
+    <t>Bill is added to the list</t>
+  </si>
+  <si>
+    <t>Verify add bill function</t>
+  </si>
+  <si>
+    <t>J-0006</t>
+  </si>
+  <si>
+    <t>Verify add expense function</t>
+  </si>
+  <si>
+    <t>J-0007</t>
+  </si>
+  <si>
+    <t>1. Click Transactions, then Expenses
+2. Click New Transactions
+3. Click Expense
+4. Fill in the required fields and click Save</t>
+  </si>
+  <si>
+    <t>Expense is added to the list</t>
+  </si>
+  <si>
+    <t>J-0008</t>
+  </si>
+  <si>
+    <t>Verify add check function</t>
+  </si>
+  <si>
+    <t>Check is added to the list</t>
+  </si>
+  <si>
+    <t>1. Click Transactions, then Expenses
+2. Click New Transactions
+3. Click Check
+4. Fill in the required fields and click Save and new</t>
+  </si>
+  <si>
+    <t>1. Click Transactions, then Expenses
+2. Click New Transactions
+3. Click Vendor Credit
+4. Fill in the required fields and click Save and new</t>
+  </si>
+  <si>
+    <t>Verify add Vendor Credit function</t>
+  </si>
+  <si>
+    <t>J-0009</t>
+  </si>
+  <si>
+    <t>Vendor Credit is added to the list</t>
+  </si>
+  <si>
+    <t>1. Click Transactions, then Sales
+2. Click New Transaction
+3. Click Invoice
+4. Fill in the required fields and click Save</t>
+  </si>
+  <si>
+    <t>Verify add invoice function</t>
+  </si>
+  <si>
+    <t>Verify add payments receivable function</t>
+  </si>
+  <si>
+    <t>1. Click Transactions, then Sales
+2. Click New Transaction
+3. Click Estimate
+4. Fill in the required fields and click Save</t>
+  </si>
+  <si>
+    <t>Verify add estimate function</t>
+  </si>
+  <si>
+    <t>Verify add sales receipt function</t>
+  </si>
+  <si>
+    <t>1. Click Transactions, then Sales
+2. Click New Transaction
+3. Click Sales Receipt
+4. Fill in the required fields and click Save</t>
+  </si>
+  <si>
+    <t>1. Click Transactions, then Sales
+2. Click New Transaction
+3. Click Credit Memo
+4. Fill in the required fields and click Save and send
+5. Click Send and close</t>
+  </si>
+  <si>
+    <t>Verify add Credit Memo</t>
+  </si>
+  <si>
+    <t>Verify add Delayed Charge function</t>
+  </si>
+  <si>
+    <t>1. Click Transactions, then Sales
+2. Click New Transaction
+3. Click Delayed Charge
+4. Fill in the required fields and click Save</t>
+  </si>
+  <si>
+    <t>J-0010</t>
+  </si>
+  <si>
+    <t>J-0011</t>
+  </si>
+  <si>
+    <t>J-0012</t>
+  </si>
+  <si>
+    <t>J-0013</t>
+  </si>
+  <si>
+    <t>J-0014</t>
+  </si>
+  <si>
+    <t>J-0015</t>
+  </si>
+  <si>
+    <t>Invoice is added to the list</t>
+  </si>
+  <si>
+    <t>1. Click Transactions, then Sales
+2. Click New Transaction
+3. Click Payment
+4. Fill in the required fields and click Save and new</t>
+  </si>
+  <si>
+    <t>Payment received is added to the list</t>
+  </si>
+  <si>
+    <t>Estimate is added to the list</t>
+  </si>
+  <si>
+    <t>Credit Memo is sent to email address</t>
+  </si>
+  <si>
+    <t>Sales receipt is added to the list</t>
+  </si>
+  <si>
+    <t>Delayed Charge is added to the list</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>K-0001</t>
+  </si>
+  <si>
+    <t>Verify company snapshot report</t>
+  </si>
+  <si>
+    <t>1. Click Reports from the left menu
+2. Click Company Snapshot</t>
+  </si>
+  <si>
+    <t>A report would load showing the overall status of the company</t>
+  </si>
+  <si>
+    <t>The screen flashes with the report loading partially, then a blank screen appears, and the report reloads into completion</t>
+  </si>
+  <si>
+    <t>DR-K-0001</t>
+  </si>
+  <si>
+    <t>K-0002</t>
+  </si>
+  <si>
+    <t>Verify management reports - Sales Performance</t>
+  </si>
+  <si>
+    <t>Verify management reports - Expenses Performance</t>
+  </si>
+  <si>
+    <t>Verify management reports - Company Overview</t>
+  </si>
+  <si>
+    <t>K-0003</t>
+  </si>
+  <si>
+    <t>K-0004</t>
+  </si>
+  <si>
+    <t>1. Click Reports from the left menu
+2. Click the Management Reports tab
+3. Click View next to Sales Performance</t>
+  </si>
+  <si>
+    <t>1. Click Reports from the left menu
+2. Click the Management Reports tab
+3. Click View next to Expenses Performance</t>
+  </si>
+  <si>
+    <t>1. Click Reports from the left menu
+2. Click the Management Reports tab
+3. Click View next to Company Overview</t>
+  </si>
+  <si>
+    <t>Sales Performance report loads</t>
+  </si>
+  <si>
+    <t>Expenses Performance report loads</t>
+  </si>
+  <si>
+    <t>Company Overview report loads</t>
+  </si>
+  <si>
+    <t>Verify Business Overview reports</t>
+  </si>
+  <si>
+    <t>Verify Manage Accounts Receivable reports</t>
+  </si>
+  <si>
+    <t>Verify Manage Accounts Payable reports</t>
+  </si>
+  <si>
+    <t>Verify Accountant Reports</t>
+  </si>
+  <si>
+    <t>Verify Review Sales reports</t>
+  </si>
+  <si>
+    <t>Verify Review Expenses and Purchases reports</t>
+  </si>
+  <si>
+    <t>Verify Manage Sales Tax reports</t>
+  </si>
+  <si>
+    <t>Verify Manage Employees reports</t>
+  </si>
+  <si>
+    <t>K-0005</t>
+  </si>
+  <si>
+    <t>K-0006</t>
+  </si>
+  <si>
+    <t>K-0007</t>
+  </si>
+  <si>
+    <t>K-0008</t>
+  </si>
+  <si>
+    <t>K-0009</t>
+  </si>
+  <si>
+    <t>K-0010</t>
+  </si>
+  <si>
+    <t>K-0011</t>
+  </si>
+  <si>
+    <t>K-0012</t>
+  </si>
+  <si>
+    <t>1. Click Reports from the left menu
+2. Click the All Reports tab
+3. Click Business Overview 
+4. Click the name of the report from the list
+5. Click the back button
+6. Repeat steps 4 &amp; 5 until all reports in the list are tested</t>
+  </si>
+  <si>
+    <t>All reports in the Business Overview list load without issues</t>
+  </si>
+  <si>
+    <t>All reports loaded</t>
+  </si>
+  <si>
+    <t>1. Click Reports from the left menu
+2. Click the All Reports tab
+3. Click Manage Accounts Receivable 
+4. Click the name of the report from the list
+5. Click the back button
+6. Repeat steps 4 &amp; 5 until all reports in the list are tested</t>
+  </si>
+  <si>
+    <t>1. Click Reports from the left menu
+2. Click the All Reports tab
+3. Click Manage Accounts Payable 
+4. Click the name of the report from the list
+5. Click the back button
+6. Repeat steps 4 &amp; 5 until all reports in the list are tested</t>
+  </si>
+  <si>
+    <t>1. Click Reports from the left menu
+2. Click the All Reports tab
+3. Click Accountant Reports 
+4. Click the name of the report from the list
+5. Click the back button
+6. Repeat steps 4 &amp; 5 until all reports in the list are tested</t>
+  </si>
+  <si>
+    <t>1. Click Reports from the left menu
+2. Click the All Reports tab
+3. Click Review Sales 
+4. Click the name of the report from the list
+5. Click the back button
+6. Repeat steps 4 &amp; 5 until all reports in the list are tested</t>
+  </si>
+  <si>
+    <t>1. Click Reports from the left menu
+2. Click the All Reports tab
+3. Click Review Expenses and Purchases 
+4. Click the name of the report from the list
+5. Click the back button
+6. Repeat steps 4 &amp; 5 until all reports in the list are tested</t>
+  </si>
+  <si>
+    <t>1. Click Reports from the left menu
+2. Click the All Reports tab
+3. Click Manage Sales Tax 
+4. Click the name of the report from the list
+5. Click the back button
+6. Repeat steps 4 &amp; 5 until all reports in the list are tested</t>
+  </si>
+  <si>
+    <t>1. Click Reports from the left menu
+2. Click the All Reports tab
+3. Click Manage Employees 
+4. Click the name of the report from the list
+5. Click the back button
+6. Repeat steps 4 &amp; 5 until all reports in the list are tested</t>
+  </si>
+  <si>
+    <t>All reports in the Manage Accounts Receivable list load without issues</t>
+  </si>
+  <si>
+    <t>All reports in the Manage Accounts Payable list load without issues</t>
+  </si>
+  <si>
+    <t>All reports in the Accountant Reports list load without issues</t>
+  </si>
+  <si>
+    <t>All reports in the Review Sales list load without issues</t>
+  </si>
+  <si>
+    <t>All reports in the Review Expenses and Purchases list load without issues</t>
+  </si>
+  <si>
+    <t>All reports in the Manage Sales Tax list load without issues</t>
+  </si>
+  <si>
+    <t>All reports in the Manage Employees list load without issues</t>
   </si>
 </sst>
 </file>
@@ -961,7 +1555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,9 +1609,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1034,6 +1625,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1313,16 +1907,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="24.83203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="16" style="3" customWidth="1"/>
@@ -1336,46 +1930,46 @@
     <col min="12" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" s="15" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="11" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:11" s="10" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
@@ -1475,11 +2069,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="11" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:11" s="10" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
@@ -1587,11 +2181,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="11" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:11" s="10" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
@@ -1633,11 +2227,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="12" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:11" s="11" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="12"/>
     </row>
     <row r="17" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
@@ -1841,11 +2435,11 @@
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:11" s="11" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:11" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="10"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="1:11" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
@@ -1976,11 +2570,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="11" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
+    <row r="33" spans="1:11" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B33" s="10"/>
+      <c r="B33" s="9"/>
     </row>
     <row r="34" spans="1:11" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
@@ -2224,11 +2818,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="11" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
+    <row r="44" spans="1:11" s="10" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="B44" s="10"/>
+      <c r="B44" s="9"/>
     </row>
     <row r="45" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
@@ -2313,7 +2907,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
         <v>231</v>
       </c>
@@ -2333,7 +2927,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>232</v>
       </c>
@@ -2353,7 +2947,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>246</v>
       </c>
@@ -2376,7 +2970,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="115" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="115" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>251</v>
       </c>
@@ -2399,15 +2993,787 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="11" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="14" t="s">
+    <row r="53" spans="1:11" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="B53" s="10"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="9"/>
+    </row>
+    <row r="54" spans="1:11" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
         <v>259</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="B56" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="10" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B57" s="9"/>
+    </row>
+    <row r="58" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="B59" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="B61" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B64" s="12"/>
+    </row>
+    <row r="65" spans="1:11" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="92" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="91" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="11" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="B80" s="12"/>
+    </row>
+    <row r="81" spans="2:11" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="B84" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" ht="143" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" ht="142" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" ht="143" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
